--- a/Örnek 10 - Metin İşlemleri.xlsx
+++ b/Örnek 10 - Metin İşlemleri.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kagan_GUL\Desktop\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubo_\OneDrive\Masaüstü\excel ödevi 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEE41316-D248-4FA1-9A6E-A49A1FD30C1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>yusuf</t>
   </si>
@@ -61,13 +72,23 @@
   </si>
   <si>
     <t>Bölüm:</t>
+  </si>
+  <si>
+    <t>KÜBRA ÇABUK</t>
+  </si>
+  <si>
+    <t>YBS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;₺&quot;* #,##0.00_-;\-&quot;₺&quot;* #,##0.00_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$₺-41F]* #,##0.00_-;\-[$₺-41F]* #,##0.00_-;_-[$₺-41F]* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Tur"/>
@@ -91,6 +112,11 @@
     </font>
     <font>
       <sz val="16"/>
+      <name val="Arial Tur"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial Tur"/>
       <charset val="162"/>
     </font>
@@ -146,10 +172,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -158,27 +185,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ParaBirimi" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -455,11 +489,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:H10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -467,8 +501,8 @@
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" customWidth="1"/>
     <col min="7" max="7" width="36.42578125" customWidth="1"/>
     <col min="8" max="8" width="26.28515625" customWidth="1"/>
@@ -483,19 +517,19 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
@@ -513,19 +547,38 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="str">
+        <f>A1&amp;" "&amp;B1</f>
+        <v>yusuf karataş</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="3">
+        <f>LEN(A5)</f>
+        <v>13</v>
+      </c>
+      <c r="E5" s="10" t="str">
+        <f>UPPER(A5)</f>
+        <v>YUSUF KARATAŞ</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f>LOWER(A5)</f>
+        <v>yusuf karataş</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f>MID(A5,5,3)</f>
+        <v>f k</v>
+      </c>
+      <c r="H5" s="11">
+        <f>VALUE(D5)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -536,34 +589,40 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="F8" s="5">
+        <v>20215070019</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="F10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
@@ -587,21 +646,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
